--- a/Paddle/PDtest.xlsx
+++ b/Paddle/PDtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timaz\Documents\PythonFile\Paddle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2CDBC4-C74F-4787-BD06-153E51D48E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45AD48C-17D8-4DAA-9350-ADA556D2F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0SHEET'!$C$1:$AK$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2在籍者名簿Master'!$A$1:$B$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'99999　ニッセープロダクツ'!$A$1:$N$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'99999　ニッセープロダクツ'!$A$1:$O$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>株式会社紀ノ国屋　製造部様　工数集計</t>
   </si>
@@ -216,6 +216,13 @@
     <t>PD夜</t>
     <rPh sb="2" eb="3">
       <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -410,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +448,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -804,7 +817,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1032,81 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1036,81 +1124,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="通貨 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1547,39 +1564,39 @@
       <c r="D1" s="24">
         <v>45627</v>
       </c>
-      <c r="E1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
+      <c r="E1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="102"/>
     </row>
     <row r="2" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="26" t="s">
@@ -1712,10 +1729,10 @@
         <f t="shared" si="0"/>
         <v>45657</v>
       </c>
-      <c r="AJ2" s="73" t="s">
+      <c r="AJ2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="73" t="s">
+      <c r="AK2" s="98" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1850,8 +1867,8 @@
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
     </row>
     <row r="4" spans="3:37" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C4" s="26">
@@ -3783,8 +3800,8 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3795,11 +3812,12 @@
     <col min="10" max="11" width="10" style="12" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" style="12" customWidth="1"/>
     <col min="13" max="13" width="9" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" style="12" customWidth="1"/>
+    <col min="14" max="15" width="8.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N1"/>
+      <c r="O1"/>
     </row>
     <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -3811,14 +3829,15 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="N2"/>
+      <c r="O2"/>
       <c r="V2" s="9">
         <v>0.91666666666666663</v>
       </c>
@@ -3836,16 +3855,17 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" t="s">
         <v>29</v>
       </c>
@@ -3856,9 +3876,11 @@
       <c r="J4"/>
       <c r="L4"/>
       <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N5"/>
+      <c r="O5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="K6" s="7" t="s">
@@ -3866,6 +3888,7 @@
       </c>
       <c r="L6" s="7"/>
       <c r="N6"/>
+      <c r="O6"/>
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K7" s="8">
@@ -3873,12 +3896,13 @@
       </c>
       <c r="L7" s="8"/>
       <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="79" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3893,33 +3917,36 @@
       <c r="F8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="91" t="s">
+      <c r="M8" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="84" t="s">
         <v>42</v>
       </c>
+      <c r="O8" s="106" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93">
+      <c r="A9" s="85">
         <f>A3</f>
         <v>1</v>
       </c>
@@ -3936,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="15" t="str">
-        <f t="shared" ref="H9:H37" si="2">IF(C9="", "", MAX(0, MIN(D9, TIME(8,0,0)) - MAX(C9, TIME(5,0,0))))</f>
+        <f t="shared" ref="H9:H39" si="2">IF(O9="夜勤",MAX(0,MIN(TIME(8,0,0),D9)-TIME(5,0,0)),IF(C9="", "", MAX(0, MIN(D9, TIME(8,0,0)) - MAX(C9, TIME(5,0,0)))))</f>
         <v/>
       </c>
       <c r="I9" s="15" t="str">
@@ -3963,14 +3990,18 @@
         <f t="shared" ref="N9" si="8">IF(D9="","",IF(C9&gt;D9,MIN(5/24,D9)+1-G9-MAX(22/24,C9),""))</f>
         <v/>
       </c>
+      <c r="O9" s="18" t="str">
+        <f t="shared" ref="O9:O38" si="9">IF(D9="","",IF(C9&gt;D9,"夜勤","昼勤"))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94">
-        <f t="shared" ref="A10" si="9">A9+1</f>
+      <c r="A10" s="86">
+        <f t="shared" ref="A10" si="10">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f t="shared" ref="B10" si="10">TEXT(A10,"aaa")</f>
+        <f t="shared" ref="B10" si="11">TEXT(A10,"aaa")</f>
         <v>月</v>
       </c>
       <c r="C10" s="17"/>
@@ -4009,14 +4040,18 @@
         <f>IF(D10="","",IF(C10&gt;D10,MIN(5/24,D10)+1-G10-MAX(22/24,C10),""))</f>
         <v/>
       </c>
+      <c r="O10" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94">
-        <f t="shared" ref="A11:A39" si="11">A10+1</f>
+      <c r="A11" s="86">
+        <f t="shared" ref="A11:A39" si="12">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f t="shared" ref="B11:B39" si="12">TEXT(A11,"aaa")</f>
+        <f t="shared" ref="B11:B39" si="13">TEXT(A11,"aaa")</f>
         <v>火</v>
       </c>
       <c r="C11" s="17"/>
@@ -4052,17 +4087,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N11" s="18" t="str">
-        <f t="shared" ref="N11:N39" si="13">IF(D11="","",IF(C11&gt;D11,MIN(5/24,D11)+1-G11-MAX(22/24,C11),""))</f>
+        <f t="shared" ref="N11:N39" si="14">IF(D11="","",IF(C11&gt;D11,MIN(5/24,D11)+1-G11-MAX(22/24,C11),""))</f>
+        <v/>
+      </c>
+      <c r="O11" s="18" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="94">
-        <f t="shared" si="11"/>
+      <c r="A12" s="86">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>水</v>
       </c>
       <c r="C12" s="17"/>
@@ -4098,17 +4137,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N12" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O12" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>木</v>
       </c>
       <c r="C13" s="17"/>
@@ -4144,17 +4187,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N13" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O13" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="86">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>金</v>
       </c>
       <c r="C14" s="17"/>
@@ -4190,17 +4237,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N14" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O14" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="86">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>土</v>
       </c>
       <c r="C15" s="17"/>
@@ -4236,17 +4287,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N15" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O15" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="86">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>日</v>
       </c>
       <c r="C16" s="17"/>
@@ -4282,17 +4337,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N16" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O16" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="86">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>月</v>
       </c>
       <c r="C17" s="17"/>
@@ -4328,17 +4387,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N17" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O17" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="86">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>火</v>
       </c>
       <c r="C18" s="17"/>
@@ -4374,17 +4437,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N18" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O18" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="86">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>水</v>
       </c>
       <c r="C19" s="17"/>
@@ -4420,17 +4487,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N19" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O19" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="86">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>木</v>
       </c>
       <c r="C20" s="17"/>
@@ -4466,17 +4537,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N20" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O20" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="86">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>金</v>
       </c>
       <c r="C21" s="17"/>
@@ -4512,17 +4587,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N21" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O21" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="86">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>土</v>
       </c>
       <c r="C22" s="17"/>
@@ -4558,17 +4637,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N22" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O22" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="86">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>日</v>
       </c>
       <c r="C23" s="17"/>
@@ -4604,17 +4687,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N23" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O23" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="86">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>月</v>
       </c>
       <c r="C24" s="17"/>
@@ -4650,17 +4737,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N24" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O24" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="86">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>火</v>
       </c>
       <c r="C25" s="17"/>
@@ -4696,17 +4787,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N25" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O25" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="86">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="94">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>水</v>
       </c>
       <c r="C26" s="17"/>
@@ -4742,17 +4837,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N26" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="86">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>木</v>
       </c>
       <c r="C27" s="17"/>
@@ -4788,17 +4887,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N27" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O27" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="86">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="94">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>金</v>
       </c>
       <c r="C28" s="17"/>
@@ -4834,17 +4937,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N28" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O28" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="86">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="94">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>土</v>
       </c>
       <c r="C29" s="17"/>
@@ -4880,17 +4987,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N29" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O29" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="86">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>日</v>
       </c>
       <c r="C30" s="17"/>
@@ -4926,17 +5037,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N30" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O30" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="86">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="94">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>月</v>
       </c>
       <c r="C31" s="17"/>
@@ -4972,17 +5087,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N31" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O31" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="86">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>火</v>
       </c>
       <c r="C32" s="17"/>
@@ -5018,17 +5137,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N32" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O32" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="86">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>水</v>
       </c>
       <c r="C33" s="17"/>
@@ -5064,17 +5187,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N33" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O33" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="86">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>木</v>
       </c>
       <c r="C34" s="17"/>
@@ -5110,17 +5237,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N34" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O34" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="86">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="94">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>金</v>
       </c>
       <c r="C35" s="17"/>
@@ -5156,17 +5287,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N35" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O35" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="86">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="94">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>土</v>
       </c>
       <c r="C36" s="17"/>
@@ -5202,17 +5337,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N36" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O36" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="86">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="94">
-        <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-      <c r="B37" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>日</v>
       </c>
       <c r="C37" s="17"/>
@@ -5248,17 +5387,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N37" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O37" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="86">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="94">
-        <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="B38" s="11" t="str">
-        <f t="shared" si="12"/>
         <v>月</v>
       </c>
       <c r="C38" s="17"/>
@@ -5270,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="15" t="str">
-        <f>IF(C38="", "", MAX(0, MIN(D38, TIME(8,0,0)) - MAX(C38, TIME(5,0,0))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I38" s="15" t="str">
@@ -5294,36 +5437,40 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N38" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O38" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="87">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="73" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="B39" s="81" t="str">
-        <f t="shared" si="12"/>
         <v>火</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="85">
+      <c r="F39" s="76"/>
+      <c r="G39" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="21" t="str">
-        <f>IF(C39="", "", MAX(0, MIN(D39, TIME(8,0,0)) - MAX(C39, TIME(5,0,0))))</f>
+        <f t="shared" ref="H39" si="15">IF(O39="夜勤",MAX(0,MIN(TIME(8,0,0),D39)-TIME(5,0,0)),IF(C39="", "", MAX(0, MIN(D39, TIME(8,0,0)) - MAX(C39, TIME(5,0,0)))))</f>
         <v/>
       </c>
       <c r="I39" s="21" t="str">
         <f>IF(C39="", "", MAX(0, MIN(D39, TIME(20,0,0)) - MAX(C39, TIME(8,0,0)) - (F39-E39)))</f>
         <v/>
       </c>
-      <c r="J39" s="86" t="str">
+      <c r="J39" s="78" t="str">
         <f>IF(C39="", "", MAX(0, MIN(D39, TIME(22,0,0)) - MAX(C39, TIME(20,0,0))))</f>
         <v/>
       </c>
@@ -5339,27 +5486,31 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N39" s="84" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="96" t="s">
+      <c r="N39" s="76" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O39" s="76" t="str">
+        <f t="shared" ref="O39" si="16">IF(D39="","",IF(C39&gt;D39,"夜勤","昼勤"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="88" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="15">
-        <f>IF(AND(C40&lt;0.333,C40&lt;&gt;""),8/24-C40,(IF(AND(D40&gt;5/24,C40&gt;0.5),D40-5/24,)))</f>
-        <v>0</v>
-      </c>
+      <c r="G40" s="69">
+        <f>+SUM(G9:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15" t="s">
@@ -5371,12 +5522,13 @@
       <c r="M40" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="97" t="s">
+      <c r="N40" s="89" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
+      <c r="O40" s="89"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="90"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -5387,10 +5539,7 @@
         <f>COUNTA(C9:C39)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="69">
-        <f>+SUM(G9:G39)</f>
-        <v>0</v>
-      </c>
+      <c r="G41" s="107"/>
       <c r="H41" s="48"/>
       <c r="I41" s="48"/>
       <c r="J41" s="48"/>
@@ -5410,9 +5559,10 @@
         <f>+SUM(N9:N39)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="96" t="s">
+      <c r="O41" s="18"/>
+    </row>
+    <row r="42" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="44"/>
@@ -5435,40 +5585,42 @@
       <c r="M42" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="N42" s="97" t="s">
+      <c r="N42" s="89" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103">
+      <c r="O42" s="89"/>
+    </row>
+    <row r="43" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="95">
         <f>SUM(H9:H39)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="103">
+      <c r="I43" s="95">
         <f>SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="103">
+      <c r="J43" s="95">
         <f>SUM(J9:J39)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104">
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96">
         <f>+SUM(N9:N39)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="105">
+      <c r="N43" s="97">
         <f>+SUM(M9:M39)</f>
         <v>0</v>
       </c>
+      <c r="O43" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5485,6 +5637,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Paddle/PDtest.xlsx
+++ b/Paddle/PDtest.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timaz\Documents\PythonFile\Paddle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45AD48C-17D8-4DAA-9350-ADA556D2F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E632DE-5D41-4674-A385-0D87F40E6E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0SHEET" sheetId="1" r:id="rId1"/>
-    <sheet name="2在籍者名簿Master" sheetId="2" r:id="rId2"/>
+    <sheet name="Number_Master" sheetId="2" r:id="rId2"/>
     <sheet name="99999　ニッセープロダクツ" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0SHEET'!$C$1:$AK$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2在籍者名簿Master'!$A$1:$B$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'99999　ニッセープロダクツ'!$A$1:$O$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Number_Master!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
   <si>
     <t>株式会社紀ノ国屋　製造部様　工数集計</t>
   </si>
@@ -63,18 +63,9 @@
     <t>氏名</t>
   </si>
   <si>
-    <t>ｱﾘｳﾝｼﾞｬﾙｶﾞﾙ　ﾂｧﾂｧﾗﾘ</t>
-  </si>
-  <si>
     <t>ｶﾞﾝﾊﾞﾀﾙ　ｶﾞﾝﾌﾚｸﾞ</t>
   </si>
   <si>
-    <t>Rﾌｧﾑ ﾃｨ ﾄｩ ﾗﾝ</t>
-  </si>
-  <si>
-    <t>Rﾌｧﾑ ｸｲﾝ ﾆｭ</t>
-  </si>
-  <si>
     <t>Rﾌｧﾑ ｸｲﾝ ﾌｫﾝ</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
   </si>
   <si>
     <t>Rｶﾞﾝﾎﾞﾙﾄﾞ ﾊﾘｳﾅｰ</t>
-  </si>
-  <si>
-    <t>Rﾑﾝﾌﾁﾒｸﾞ ﾏﾗﾙﾏｰ</t>
   </si>
   <si>
     <t>Rﾊﾞﾄﾂｪﾝｹﾞﾙ ｱﾙﾀﾝﾁﾒｸ</t>
@@ -225,6 +213,279 @@
       <t>クブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A08020385</t>
+  </si>
+  <si>
+    <t>カドカ ジャムナ
+KHADKA JAMUNA</t>
+  </si>
+  <si>
+    <t>A08020505</t>
+  </si>
+  <si>
+    <t>カルキ　カマラ
+KARKI KAMALA</t>
+  </si>
+  <si>
+    <t>B06013909</t>
+  </si>
+  <si>
+    <t>ネウパネ　ブワン
+NEUPANE BHUWAN</t>
+  </si>
+  <si>
+    <t>B06014041</t>
+  </si>
+  <si>
+    <t>サハニ　スルヤ　バハドゥル
+SAHANI SURYAA</t>
+  </si>
+  <si>
+    <t>B06014042</t>
+  </si>
+  <si>
+    <t>タパ　マガル　サンギタ
+THAPA MAGAR SANGITA</t>
+  </si>
+  <si>
+    <t>B06014043</t>
+  </si>
+  <si>
+    <t>ﾊﾟﾝﾃﾞｨ　プナム
+PANDEY PUNAM</t>
+  </si>
+  <si>
+    <t>B06014038</t>
+  </si>
+  <si>
+    <t>シュレスタ　スヴァシュ
+SHRESTHA SUBASH</t>
+  </si>
+  <si>
+    <t>B06014046</t>
+  </si>
+  <si>
+    <t>ロカ　マガル　シル　クマリ
+ROKA MAGAR SHIR KUMARI</t>
+  </si>
+  <si>
+    <t>B06014089</t>
+  </si>
+  <si>
+    <t>ネウパネ　シルザナ
+NEUPANE SIRJANA</t>
+  </si>
+  <si>
+    <t>A08020677</t>
+  </si>
+  <si>
+    <t>タパ マガル プナム
+THAPA MAGAR POONAM</t>
+  </si>
+  <si>
+    <t>A08020683</t>
+  </si>
+  <si>
+    <t>シリス ディパ
+SHREES DIPA</t>
+  </si>
+  <si>
+    <t>A08020783</t>
+  </si>
+  <si>
+    <t>チャウダリ サパナ
+CHAUDHARY SAPANA</t>
+  </si>
+  <si>
+    <t>A08020836</t>
+  </si>
+  <si>
+    <t>ネウパネ ゴパル
+NEUPANE GOPAL</t>
+  </si>
+  <si>
+    <t>A08020837</t>
+  </si>
+  <si>
+    <t>ティワリ プラカス
+TIWARI PRAKASH</t>
+  </si>
+  <si>
+    <t>B06013760</t>
+  </si>
+  <si>
+    <t>ビケ　アルジュン
+B K ARJUN</t>
+  </si>
+  <si>
+    <t>B06013750</t>
+  </si>
+  <si>
+    <t>タパ　イスミレテ
+THAPA SMRITI</t>
+  </si>
+  <si>
+    <t>B06013751</t>
+  </si>
+  <si>
+    <t>ヤカ　ホム　マヤ
+YAKHAK HOM MAYA</t>
+  </si>
+  <si>
+    <t>B06013752</t>
+  </si>
+  <si>
+    <t>プン　ヘマ　クマリ
+PUN HEMA MUMARI</t>
+  </si>
+  <si>
+    <t>B06013753</t>
+  </si>
+  <si>
+    <t>マガル　シマ　マヤ
+MAGAR SIMA MAYA</t>
+  </si>
+  <si>
+    <t>B06013762</t>
+  </si>
+  <si>
+    <t>ビスタ　キソル
+BIST KISHOR</t>
+  </si>
+  <si>
+    <t>B06013763</t>
+  </si>
+  <si>
+    <t>マルラ　プレマ
+MALLA PREMA</t>
+  </si>
+  <si>
+    <t>B06013765</t>
+  </si>
+  <si>
+    <t>タパ　アサ
+THAPA ASHA</t>
+  </si>
+  <si>
+    <t>B06013768</t>
+  </si>
+  <si>
+    <t>ティミルセナ　ラクシミ 
+TIMILSENA LAXMI</t>
+  </si>
+  <si>
+    <t>B06013770</t>
+  </si>
+  <si>
+    <t>タパ　ジェニシャ
+THAPA JENISHA</t>
+  </si>
+  <si>
+    <t>B06013766</t>
+  </si>
+  <si>
+    <t>スレスタ　ニルタ
+SHRESTHA NIRUTA</t>
+  </si>
+  <si>
+    <t>B06013792</t>
+  </si>
+  <si>
+    <t>バラル　サンディア
+BARAL SANDHYA</t>
+  </si>
+  <si>
+    <t>B06013793</t>
+  </si>
+  <si>
+    <t>グルン　サビナ
+GURUNG SABINA</t>
+  </si>
+  <si>
+    <t>B06013900</t>
+  </si>
+  <si>
+    <t>ギシン　サンザナ
+GHISING SAMJHANA</t>
+  </si>
+  <si>
+    <t>B06013907</t>
+  </si>
+  <si>
+    <t>チャンデュ　プザ
+CHAND PUJA</t>
+  </si>
+  <si>
+    <t>B06013898</t>
+  </si>
+  <si>
+    <t>カトリ　スレスタ　アミタ
+KHATRI SHRESTHA AMITA</t>
+  </si>
+  <si>
+    <t>B06013899</t>
+  </si>
+  <si>
+    <t>サヒ　ヘミ　サラ
+SHAHI HEMI SARA</t>
+  </si>
+  <si>
+    <t>B06013908</t>
+  </si>
+  <si>
+    <t>バッタ デイペシュ
+BHATTA DIPESH</t>
+  </si>
+  <si>
+    <t>B06014032</t>
+  </si>
+  <si>
+    <t>バッタライ　ドゥルガ
+BHATTRAI DURGA</t>
+  </si>
+  <si>
+    <t>B06014035</t>
+  </si>
+  <si>
+    <t>ネパール　バグワティ
+NEPAL BHAGWATI</t>
+  </si>
+  <si>
+    <t>B06014060</t>
+  </si>
+  <si>
+    <t>アムガイン　アヌスカ
+AMGAIN ANUSKA</t>
+  </si>
+  <si>
+    <t>B06014062</t>
+  </si>
+  <si>
+    <t>バンダリ　サビタ
+BHANDARI SABITA</t>
+  </si>
+  <si>
+    <t>B06014064</t>
+  </si>
+  <si>
+    <t>グルﾝ　ヒラ
+GURUNG HIRA</t>
+  </si>
+  <si>
+    <t>B06014065</t>
+  </si>
+  <si>
+    <t>プン　アリナ
+PUN ALEENA</t>
+  </si>
+  <si>
+    <t>B06014066</t>
+  </si>
+  <si>
+    <t>リンブ　ディパ
+LIMBU DEEPA</t>
   </si>
 </sst>
 </file>
@@ -241,7 +502,7 @@
     <numFmt numFmtId="181" formatCode="m/d;@"/>
     <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,20 +640,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -415,6 +662,30 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -455,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -804,6 +1075,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -817,7 +1223,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,18 +1400,6 @@
     <xf numFmtId="182" fontId="15" fillId="2" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1018,16 +1412,13 @@
     <xf numFmtId="20" fontId="15" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1048,7 +1439,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,14 +1490,57 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1124,10 +1558,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="通貨 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1137,7 +1567,7 @@
     <cellStyle name="標準 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準_ﾀｲﾑﾃｰﾌﾞﾙ02.04.22" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -1149,54 +1579,6 @@
         <b/>
         <color rgb="FF0070C0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1548,7 +1930,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="21.9" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="1" style="42" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="23" customWidth="1"/>
@@ -1560,45 +1942,45 @@
     <col min="366" max="16384" width="3.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:37" ht="38.25" customHeight="1">
       <c r="D1" s="24">
         <v>45627</v>
       </c>
-      <c r="E1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
-    </row>
-    <row r="2" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="112"/>
+    </row>
+    <row r="2" spans="3:37" ht="21.9" customHeight="1">
       <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
@@ -1729,14 +2111,14 @@
         <f t="shared" si="0"/>
         <v>45657</v>
       </c>
-      <c r="AJ2" s="98" t="s">
+      <c r="AJ2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="98" t="s">
+      <c r="AK2" s="108" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:37" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:37" ht="21.9" customHeight="1" thickBot="1">
       <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
@@ -1867,15 +2249,15 @@
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-    </row>
-    <row r="4" spans="3:37" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+    </row>
+    <row r="4" spans="3:37" ht="21.9" customHeight="1" thickTop="1">
       <c r="C4" s="26">
         <v>5999</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -1917,12 +2299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:37" ht="21.9" customHeight="1">
       <c r="C5" s="34">
         <v>6683</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -1964,12 +2346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:37" ht="21.9" customHeight="1">
       <c r="C6" s="34">
         <v>6689</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -2011,12 +2393,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:37" ht="21.9" customHeight="1">
       <c r="C7" s="34">
         <v>6742</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
@@ -2058,12 +2440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:37" ht="21.9" customHeight="1">
       <c r="C8" s="34">
         <v>6859</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -2105,12 +2487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:37" ht="21.9" customHeight="1">
       <c r="C9" s="34">
         <v>6897</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -2152,12 +2534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:37" ht="21.9" customHeight="1">
       <c r="C10" s="34">
         <v>6899</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -2199,44 +2581,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="64">
+    <row r="11" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C11" s="60">
         <v>6912</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
+      <c r="D11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
       <c r="AJ11" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2246,44 +2628,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="64">
+    <row r="12" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C12" s="60">
         <v>6924</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
+      <c r="D12" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
       <c r="AJ12" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2293,44 +2675,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="64">
+    <row r="13" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C13" s="60">
         <v>6925</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
+      <c r="D13" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
       <c r="AJ13" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2340,44 +2722,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="64">
+    <row r="14" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C14" s="60">
         <v>6926</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
+      <c r="D14" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
       <c r="AJ14" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2387,44 +2769,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="64">
+    <row r="15" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C15" s="60">
         <v>6927</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
+      <c r="D15" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
       <c r="AJ15" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2434,44 +2816,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="64">
+    <row r="16" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C16" s="60">
         <v>6928</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
+      <c r="D16" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
       <c r="AJ16" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2481,40 +2863,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
+    <row r="17" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
       <c r="AJ17" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2524,40 +2906,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
+    <row r="18" spans="3:37" ht="21.9" customHeight="1">
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
       <c r="AJ18" s="33">
         <f t="shared" ref="AJ18" si="4">SUBTOTAL(9,E18:AI18)</f>
         <v>0</v>
@@ -2567,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:37" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" ht="21.9" customHeight="1" thickBot="1">
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
       <c r="E19" s="57"/>
@@ -2610,10 +2992,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:37" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:37" ht="21.9" customHeight="1" thickTop="1">
       <c r="C20" s="52"/>
       <c r="D20" s="53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20" s="54">
         <f t="shared" ref="E20:AI20" si="6">COUNT(E4:E19)</f>
@@ -2742,10 +3124,10 @@
       <c r="AJ20" s="32"/>
       <c r="AK20" s="52"/>
     </row>
-    <row r="21" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:37" ht="21.9" customHeight="1">
       <c r="C21" s="26"/>
       <c r="D21" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21" s="39">
         <f t="shared" ref="E21:AI21" si="7">SUBTOTAL(9,E4:E19)</f>
@@ -2880,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:37" ht="21.9" customHeight="1">
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
@@ -2912,7 +3294,7 @@
       <c r="AI22" s="25"/>
       <c r="AJ22" s="25"/>
     </row>
-    <row r="23" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:37" ht="21.9" customHeight="1">
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -2944,7 +3326,7 @@
       <c r="AH23" s="25"/>
       <c r="AI23" s="25"/>
     </row>
-    <row r="24" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:37" ht="21.9" customHeight="1">
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
@@ -2977,7 +3359,7 @@
       <c r="AH24" s="25"/>
       <c r="AI24" s="25"/>
     </row>
-    <row r="25" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:37" ht="21.9" customHeight="1">
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
@@ -3010,7 +3392,7 @@
       <c r="AH25" s="25"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:37" ht="21.9" customHeight="1">
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -3043,7 +3425,7 @@
       <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
     </row>
-    <row r="27" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:37" ht="21.9" customHeight="1">
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="25"/>
@@ -3076,7 +3458,7 @@
       <c r="AH27" s="25"/>
       <c r="AI27" s="25"/>
     </row>
-    <row r="28" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:37" ht="21.9" customHeight="1">
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -3109,7 +3491,7 @@
       <c r="AH28" s="25"/>
       <c r="AI28" s="25"/>
     </row>
-    <row r="29" spans="3:37" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:37" ht="21.9" customHeight="1">
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -3142,89 +3524,89 @@
       <c r="AH29" s="25"/>
       <c r="AI29" s="25"/>
     </row>
-    <row r="30" spans="3:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:37" ht="18" customHeight="1">
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="3:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:37" ht="18" customHeight="1">
       <c r="Q31" s="25"/>
     </row>
-    <row r="32" spans="3:37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:37" ht="18" customHeight="1"/>
+    <row r="33" ht="18" customHeight="1"/>
+    <row r="34" ht="18" customHeight="1"/>
+    <row r="35" ht="18" customHeight="1"/>
+    <row r="36" ht="18" customHeight="1"/>
+    <row r="37" ht="18" customHeight="1"/>
+    <row r="38" ht="18" customHeight="1"/>
+    <row r="39" ht="18" customHeight="1"/>
+    <row r="40" ht="18" customHeight="1"/>
+    <row r="41" ht="18" customHeight="1"/>
+    <row r="42" ht="18" customHeight="1"/>
+    <row r="43" ht="18" customHeight="1"/>
+    <row r="44" ht="18" customHeight="1"/>
+    <row r="45" ht="18" customHeight="1"/>
+    <row r="46" ht="18" customHeight="1"/>
+    <row r="47" ht="18" customHeight="1"/>
+    <row r="48" ht="18" customHeight="1"/>
+    <row r="49" spans="5:9" ht="18" customHeight="1"/>
+    <row r="50" spans="5:9" ht="18" customHeight="1"/>
+    <row r="51" spans="5:9" ht="18" customHeight="1"/>
+    <row r="52" spans="5:9" ht="18" customHeight="1"/>
+    <row r="53" spans="5:9" ht="18" customHeight="1"/>
+    <row r="54" spans="5:9" ht="18" customHeight="1"/>
+    <row r="55" spans="5:9" ht="18" customHeight="1"/>
+    <row r="56" spans="5:9" ht="18" customHeight="1"/>
+    <row r="57" spans="5:9" ht="18" customHeight="1"/>
+    <row r="58" spans="5:9" ht="18" customHeight="1"/>
+    <row r="59" spans="5:9" ht="18" customHeight="1"/>
+    <row r="60" spans="5:9" ht="18" customHeight="1">
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
     </row>
-    <row r="61" spans="5:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="5:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="5:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="5:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="5:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="5:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="5:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="5:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="5:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="5:35" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:9" ht="16.2" customHeight="1"/>
+    <row r="62" spans="5:9" ht="16.2" customHeight="1"/>
+    <row r="63" spans="5:9" ht="16.2" customHeight="1"/>
+    <row r="64" spans="5:9" ht="16.2" customHeight="1"/>
+    <row r="65" ht="16.2" customHeight="1"/>
+    <row r="66" ht="16.2" customHeight="1"/>
+    <row r="67" ht="16.2" customHeight="1"/>
+    <row r="68" ht="16.2" customHeight="1"/>
+    <row r="69" ht="16.2" customHeight="1"/>
+    <row r="70" ht="16.2" customHeight="1"/>
+    <row r="71" ht="16.2" customHeight="1"/>
+    <row r="72" ht="16.2" customHeight="1"/>
+    <row r="73" ht="16.2" customHeight="1"/>
+    <row r="74" ht="16.2" customHeight="1"/>
+    <row r="75" ht="16.2" customHeight="1"/>
+    <row r="76" ht="16.2" customHeight="1"/>
+    <row r="77" ht="16.2" customHeight="1"/>
+    <row r="78" ht="16.2" customHeight="1"/>
+    <row r="79" ht="16.2" customHeight="1"/>
+    <row r="80" ht="16.2" customHeight="1"/>
+    <row r="81" ht="16.2" customHeight="1"/>
+    <row r="82" ht="16.2" customHeight="1"/>
+    <row r="83" ht="16.2" customHeight="1"/>
+    <row r="84" ht="16.2" customHeight="1"/>
+    <row r="85" ht="16.2" customHeight="1"/>
+    <row r="86" ht="16.2" customHeight="1"/>
+    <row r="87" ht="16.2" customHeight="1"/>
+    <row r="88" ht="16.2" customHeight="1"/>
+    <row r="89" ht="16.2" customHeight="1"/>
+    <row r="90" ht="16.2" customHeight="1"/>
+    <row r="91" ht="16.2" customHeight="1"/>
+    <row r="92" ht="16.2" customHeight="1"/>
+    <row r="93" ht="16.2" customHeight="1"/>
+    <row r="94" ht="16.2" customHeight="1"/>
+    <row r="95" ht="16.2" customHeight="1"/>
+    <row r="96" ht="16.2" customHeight="1"/>
+    <row r="97" spans="5:35" ht="16.2" customHeight="1"/>
+    <row r="98" spans="5:35" ht="16.2" customHeight="1"/>
+    <row r="99" spans="5:35" ht="16.2" customHeight="1"/>
+    <row r="100" spans="5:35" ht="16.2" customHeight="1"/>
+    <row r="101" spans="5:35" ht="16.2" customHeight="1"/>
+    <row r="102" spans="5:35" ht="16.2" customHeight="1">
       <c r="E102">
         <v>0</v>
       </c>
@@ -3319,57 +3701,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="104" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="105" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="106" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="107" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="108" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="109" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="110" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="111" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="112" spans="5:35" ht="17.25" customHeight="1"/>
+    <row r="113" ht="17.25" customHeight="1"/>
+    <row r="114" ht="17.25" customHeight="1"/>
+    <row r="115" ht="17.25" customHeight="1"/>
+    <row r="116" ht="17.25" customHeight="1"/>
+    <row r="117" ht="17.25" customHeight="1"/>
+    <row r="118" ht="17.25" customHeight="1"/>
+    <row r="119" ht="17.25" customHeight="1"/>
+    <row r="120" ht="17.25" customHeight="1"/>
+    <row r="121" ht="17.25" customHeight="1"/>
+    <row r="122" ht="17.25" customHeight="1"/>
+    <row r="123" ht="17.25" customHeight="1"/>
+    <row r="124" ht="17.25" customHeight="1"/>
+    <row r="125" ht="17.25" customHeight="1"/>
+    <row r="126" ht="17.25" customHeight="1"/>
+    <row r="127" ht="17.25" customHeight="1"/>
+    <row r="128" ht="17.25" customHeight="1"/>
+    <row r="129" ht="17.25" customHeight="1"/>
+    <row r="130" ht="17.25" customHeight="1"/>
+    <row r="131" ht="17.25" customHeight="1"/>
+    <row r="132" ht="17.25" customHeight="1"/>
+    <row r="133" ht="17.25" customHeight="1"/>
+    <row r="134" ht="17.25" customHeight="1"/>
+    <row r="135" ht="17.25" customHeight="1"/>
+    <row r="136" ht="17.25" customHeight="1"/>
+    <row r="137" ht="17.25" customHeight="1"/>
+    <row r="138" ht="17.25" customHeight="1"/>
+    <row r="139" ht="17.25" customHeight="1"/>
+    <row r="140" ht="17.25" customHeight="1"/>
+    <row r="141" ht="17.25" customHeight="1"/>
+    <row r="142" ht="17.25" customHeight="1"/>
+    <row r="143" ht="17.25" customHeight="1"/>
+    <row r="144" ht="17.25" customHeight="1"/>
+    <row r="145" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="146" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="147" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="148" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="149" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="150" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="151" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="152" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="153" spans="5:34" ht="17.25" customHeight="1">
       <c r="E153">
         <v>0</v>
       </c>
@@ -3461,14 +3843,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="5:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="5:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="155" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="156" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="157" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="158" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="159" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="160" spans="5:34" ht="17.25" customHeight="1"/>
+    <row r="161" spans="5:35" ht="17.25" customHeight="1">
       <c r="E161">
         <v>0</v>
       </c>
@@ -3571,34 +3953,34 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C19">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"退職"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D19">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>WEEKDAY(D4)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>WEEKDAY(D4)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>WEEKDAY(D19)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>WEEKDAY(D19)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:AI4">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3612,183 +3994,451 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="63" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60">
-        <v>5998</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60">
-        <v>5999</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
-        <v>6647</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60">
-        <v>6649</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60">
-        <v>6683</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
-        <v>6689</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
-        <v>6742</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60">
-        <v>6859</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60">
-        <v>6897</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60">
-        <v>6898</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60">
-        <v>6899</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60">
-        <v>6912</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60">
-        <v>6924</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60">
-        <v>6925</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
-        <v>6926</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60">
-        <v>6927</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60">
-        <v>6928</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>23</v>
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1">
+        <v>70004834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A2" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>70004840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A3" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>70006438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A4" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>70006780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>70006783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A6" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>70006781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A7" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>70006777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A8" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>70006782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A9" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>70006439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>70005305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A11" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>70005312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A12" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>70005490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A13" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>70005596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A14" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>70005597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A15" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>70005764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A16" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>70006081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A17" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17">
+        <v>70006084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A18" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>70006082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A19" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>70006083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A20" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>70005830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A21" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>70005771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A22" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22">
+        <v>70005770</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A23" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>70005761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A24" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24">
+        <v>70005762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A25" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>70005772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A26" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <v>70006211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A27" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27">
+        <v>70006210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A28" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28">
+        <v>70006528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A29" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <v>70006487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A30" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30">
+        <v>70006457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A31" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>70006456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A32" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32">
+        <v>70006426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A33" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>70006710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A34" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34">
+        <v>70006678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A35" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>70005916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A36" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36">
+        <v>70006597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A37" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37">
+        <v>70006711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A38" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38">
+        <v>70006760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A39" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39">
+        <v>70006712</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:A17">
-    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A17">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"退職"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>WEEKDAY(B1)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>WEEKDAY(B1)=7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>WEEKDAY(B2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
-      <formula>WEEKDAY(B2)=7</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3800,11 +4450,11 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView showZeros="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" style="12" bestFit="1" customWidth="1"/>
@@ -3815,25 +4465,25 @@
     <col min="14" max="15" width="8.21875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="22.5" customHeight="1">
       <c r="A2" s="2">
         <v>2025</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
+        <v>23</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="N2"/>
@@ -3845,29 +4495,27 @@
         <v>1.208333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="22.5" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>70000000</v>
@@ -3878,19 +4526,19 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7"/>
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
       <c r="K7" s="8">
         <v>0.33333333333333331</v>
       </c>
@@ -3898,1615 +4546,1522 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="G8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="H8" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="L8" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="M8" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="81" t="s">
+      <c r="N8" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85">
-        <f>A3</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="49" t="str">
-        <f t="shared" ref="B9" si="0">TEXT(A9,"aaa")</f>
-        <v>日</v>
+    </row>
+    <row r="9" spans="1:23" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A9" s="80"/>
+      <c r="B9" s="49">
+        <f>IF(A9="",,TEXT(A9,"aaa"))</f>
+        <v>0</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="50"/>
       <c r="E9" s="15"/>
       <c r="F9" s="14"/>
       <c r="G9" s="19">
-        <f t="shared" ref="G9:G39" si="1">IF(E9&gt;F9,F9+1-E9,F9-E9)</f>
+        <f t="shared" ref="G9:G39" si="0">IF(E9&gt;F9,F9+1-E9,F9-E9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="15" t="str">
-        <f t="shared" ref="H9:H39" si="2">IF(O9="夜勤",MAX(0,MIN(TIME(8,0,0),D9)-TIME(5,0,0)),IF(C9="", "", MAX(0, MIN(D9, TIME(8,0,0)) - MAX(C9, TIME(5,0,0)))))</f>
+        <f t="shared" ref="H9:H39" si="1">IF(O9="夜勤",MAX(0,IF(D9&gt;0.5,,MIN(TIME(8,0,0),D9))-TIME(5,0,0)),IF(C9="", "", MAX(0, MIN(D9, TIME(8,0,0)) - MAX(C9, TIME(5,0,0)))))</f>
         <v/>
       </c>
       <c r="I9" s="15" t="str">
-        <f t="shared" ref="I9:I37" si="3">IF(C9="", "", MAX(0, MIN(D9, TIME(20,0,0)) - MAX(C9, TIME(8,0,0)) - (F9-E9)))</f>
-        <v/>
-      </c>
-      <c r="J9" s="68" t="str">
-        <f t="shared" ref="J9:J37" si="4">IF(C9="", "", MAX(0, MIN(D9, TIME(22,0,0)) - MAX(C9, TIME(20,0,0))))</f>
+        <f t="shared" ref="I9:I38" si="2">IF(D9="","",IF(O9="昼勤",MIN(TIME(20,0,0),D9)-MAX(TIME(8,0,0),C9)-G9,IF(C9&gt;TIME(20,0,0),0,TIME(20,0,0)-C9)))</f>
+        <v/>
+      </c>
+      <c r="J9" s="64" t="str">
+        <f t="shared" ref="J9:J38" si="3">IF(C9="","",IF(O9="夜勤",MAX(C9,TIME(22,0,0))-MAX(C9,TIME(20,0,0)),IF(D9&lt;TIME(20,0,0),0,MIN(D9,TIME(22,0,0))-MIN(D9,TIME(20,0,0)))))</f>
         <v/>
       </c>
       <c r="K9" s="16">
-        <f t="shared" ref="K9:K39" si="5">IF(C9&gt;D9,D9+1-C9-G9,D9-C9-G9)</f>
+        <f t="shared" ref="K9:K39" si="4">IF(C9&gt;D9,D9+1-C9-G9,D9-C9-G9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" ref="L9:L39" si="6">+IF(K9&gt;$K$7,$K$7,K9)</f>
+        <f t="shared" ref="L9:L39" si="5">+IF(K9&gt;$K$7,$K$7,K9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="15" t="str">
-        <f t="shared" ref="M9:M39" si="7">+IF(OR(K9&lt;=$K$7,K9=" ")," ",K9-$K$7)</f>
+        <f t="shared" ref="M9:M39" si="6">+IF(OR(K9&lt;=$K$7,K9=" ")," ",K9-$K$7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N9" s="18" t="str">
-        <f t="shared" ref="N9" si="8">IF(D9="","",IF(C9&gt;D9,MIN(5/24,D9)+1-G9-MAX(22/24,C9),""))</f>
+        <f t="shared" ref="N9" si="7">IF(D9="","",IF(O9="夜勤",IF(D9&gt;C9,D9-MAX(22/24,C9),MIN(5/24,D9)+1-G9-MAX(22/24,C9)),""))</f>
         <v/>
       </c>
       <c r="O9" s="18" t="str">
-        <f t="shared" ref="O9:O38" si="9">IF(D9="","",IF(C9&gt;D9,"夜勤","昼勤"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86">
-        <f t="shared" ref="A10" si="10">A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="str">
-        <f t="shared" ref="B10" si="11">TEXT(A10,"aaa")</f>
-        <v>月</v>
+        <f>IF(D9="","",IF(C9&gt;TIME(12,0,0),"夜勤","昼勤"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A10" s="81"/>
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:B39" si="8">IF(A10="",,TEXT(A10,"aaa"))</f>
+        <v>0</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="51"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I10" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" s="15" t="str">
+      <c r="J10" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J10" s="68" t="str">
+      <c r="K10" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="20">
+      <c r="M10" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N10" s="18" t="str">
-        <f>IF(D10="","",IF(C10&gt;D10,MIN(5/24,D10)+1-G10-MAX(22/24,C10),""))</f>
+        <f t="shared" ref="N10:N39" si="9">IF(D10="","",IF(O10="夜勤",IF(D10&gt;C10,D10-MAX(22/24,C10),MIN(5/24,D10)+1-G10-MAX(22/24,C10)),""))</f>
         <v/>
       </c>
       <c r="O10" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86">
-        <f t="shared" ref="A11:A39" si="12">A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="11" t="str">
-        <f t="shared" ref="B11:B39" si="13">TEXT(A11,"aaa")</f>
-        <v>火</v>
+        <f t="shared" ref="O10:O39" si="10">IF(D10="","",IF(C10&gt;TIME(12,0,0),"夜勤","昼勤"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A11" s="81"/>
+      <c r="B11" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="51"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I11" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="15" t="str">
+      <c r="J11" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J11" s="68" t="str">
+      <c r="K11" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="20">
+      <c r="M11" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N11" s="18" t="str">
-        <f t="shared" ref="N11:N39" si="14">IF(D11="","",IF(C11&gt;D11,MIN(5/24,D11)+1-G11-MAX(22/24,C11),""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O11" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="B12" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>水</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A12" s="81"/>
+      <c r="B12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="51"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="15" t="str">
+      <c r="J12" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J12" s="68" t="str">
+      <c r="K12" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="20">
+      <c r="M12" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N12" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O12" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>木</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A13" s="81"/>
+      <c r="B13" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="51"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I13" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="15" t="str">
+      <c r="J13" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="68" t="str">
+      <c r="K13" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L13" s="20">
+      <c r="M13" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N13" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O13" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>金</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A14" s="81"/>
+      <c r="B14" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="51"/>
       <c r="E14" s="16"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I14" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="15" t="str">
+      <c r="J14" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J14" s="68" t="str">
+      <c r="K14" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L14" s="20">
+      <c r="M14" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N14" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O14" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>土</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A15" s="81"/>
+      <c r="B15" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="51"/>
       <c r="E15" s="16"/>
       <c r="F15" s="18"/>
       <c r="G15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I15" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="15" t="str">
+      <c r="J15" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J15" s="68" t="str">
+      <c r="K15" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L15" s="20">
+      <c r="M15" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N15" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O15" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>日</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="22.5" customHeight="1">
+      <c r="A16" s="81"/>
+      <c r="B16" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="51"/>
       <c r="E16" s="16"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I16" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="15" t="str">
+      <c r="J16" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J16" s="68" t="str">
+      <c r="K16" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L16" s="20">
+      <c r="M16" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N16" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O16" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>月</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A17" s="81"/>
+      <c r="B17" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="51"/>
       <c r="E17" s="16"/>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I17" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="15" t="str">
+      <c r="J17" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J17" s="68" t="str">
+      <c r="K17" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L17" s="20">
+      <c r="M17" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N17" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O17" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>火</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A18" s="81"/>
+      <c r="B18" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="51"/>
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I18" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="15" t="str">
+      <c r="J18" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J18" s="68" t="str">
+      <c r="K18" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L18" s="20">
+      <c r="M18" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N18" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O18" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>水</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A19" s="81"/>
+      <c r="B19" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="51"/>
       <c r="E19" s="16"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I19" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="15" t="str">
+      <c r="J19" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J19" s="68" t="str">
+      <c r="K19" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L19" s="20">
+      <c r="M19" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N19" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O19" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>木</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A20" s="81"/>
+      <c r="B20" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="51"/>
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I20" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="15" t="str">
+      <c r="J20" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J20" s="68" t="str">
+      <c r="K20" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="20">
+      <c r="M20" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N20" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O20" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>金</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A21" s="81"/>
+      <c r="B21" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="51"/>
       <c r="E21" s="16"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I21" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="15" t="str">
+      <c r="J21" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J21" s="68" t="str">
+      <c r="K21" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L21" s="20">
+      <c r="M21" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N21" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O21" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>土</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A22" s="81"/>
+      <c r="B22" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="51"/>
       <c r="E22" s="16"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I22" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="15" t="str">
+      <c r="J22" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J22" s="68" t="str">
+      <c r="K22" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="20">
+      <c r="M22" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N22" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O22" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>日</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A23" s="81"/>
+      <c r="B23" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="51"/>
       <c r="E23" s="16"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I23" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="15" t="str">
+      <c r="J23" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J23" s="68" t="str">
+      <c r="K23" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="20">
+      <c r="M23" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N23" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O23" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>月</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A24" s="81"/>
+      <c r="B24" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="51"/>
       <c r="E24" s="16"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I24" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="15" t="str">
+      <c r="J24" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J24" s="68" t="str">
+      <c r="K24" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="20">
+      <c r="M24" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N24" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O24" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>火</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A25" s="81"/>
+      <c r="B25" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="51"/>
       <c r="E25" s="16"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I25" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I25" s="15" t="str">
+      <c r="J25" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J25" s="68" t="str">
+      <c r="K25" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="20">
+      <c r="M25" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N25" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O25" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>水</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A26" s="81"/>
+      <c r="B26" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="51"/>
       <c r="E26" s="16"/>
       <c r="F26" s="18"/>
       <c r="G26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I26" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="15" t="str">
+      <c r="J26" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J26" s="68" t="str">
+      <c r="K26" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="20">
+      <c r="M26" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N26" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O26" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>木</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A27" s="81"/>
+      <c r="B27" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="51"/>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
       <c r="G27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I27" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I27" s="15" t="str">
+      <c r="J27" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J27" s="68" t="str">
+      <c r="K27" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="20">
+      <c r="M27" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N27" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O27" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="86">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>金</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A28" s="81"/>
+      <c r="B28" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="51"/>
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I28" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I28" s="15" t="str">
+      <c r="J28" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J28" s="68" t="str">
+      <c r="K28" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L28" s="20">
+      <c r="M28" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N28" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O28" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86">
-        <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>土</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A29" s="81"/>
+      <c r="B29" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="51"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I29" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="15" t="str">
+      <c r="J29" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J29" s="68" t="str">
+      <c r="K29" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L29" s="20">
+      <c r="M29" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N29" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O29" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="86">
-        <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>日</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A30" s="81"/>
+      <c r="B30" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="51"/>
       <c r="E30" s="16"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I30" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="15" t="str">
+      <c r="J30" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J30" s="68" t="str">
+      <c r="K30" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L30" s="20">
+      <c r="M30" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N30" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O30" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="86">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>月</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A31" s="81"/>
+      <c r="B31" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="51"/>
       <c r="E31" s="16"/>
       <c r="F31" s="18"/>
       <c r="G31" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I31" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="15" t="str">
+      <c r="J31" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J31" s="68" t="str">
+      <c r="K31" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L31" s="20">
+      <c r="M31" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N31" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O31" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>火</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A32" s="81"/>
+      <c r="B32" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="51"/>
       <c r="E32" s="16"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I32" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="15" t="str">
+      <c r="J32" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J32" s="68" t="str">
+      <c r="K32" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L32" s="20">
+      <c r="M32" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N32" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O32" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>水</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A33" s="81"/>
+      <c r="B33" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="51"/>
       <c r="E33" s="16"/>
       <c r="F33" s="18"/>
       <c r="G33" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I33" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="15" t="str">
+      <c r="J33" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J33" s="68" t="str">
+      <c r="K33" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L33" s="20">
+      <c r="M33" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N33" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O33" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="86">
-        <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>木</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="51"/>
       <c r="E34" s="16"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I34" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I34" s="15" t="str">
+      <c r="J34" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J34" s="68" t="str">
+      <c r="K34" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L34" s="20">
+      <c r="M34" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N34" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O34" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="86">
-        <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>金</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A35" s="81"/>
+      <c r="B35" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="51"/>
       <c r="E35" s="16"/>
       <c r="F35" s="18"/>
       <c r="G35" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I35" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I35" s="15" t="str">
+      <c r="J35" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J35" s="68" t="str">
+      <c r="K35" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="20">
+      <c r="M35" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N35" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O35" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="86">
-        <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>土</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A36" s="81"/>
+      <c r="B36" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="51"/>
       <c r="E36" s="16"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I36" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I36" s="15" t="str">
+      <c r="J36" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J36" s="68" t="str">
+      <c r="K36" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L36" s="20">
+      <c r="M36" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N36" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O36" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="86">
-        <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-      <c r="B37" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>日</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A37" s="81"/>
+      <c r="B37" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="51"/>
       <c r="E37" s="16"/>
       <c r="F37" s="18"/>
       <c r="G37" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I37" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I37" s="15" t="str">
+      <c r="J37" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J37" s="68" t="str">
+      <c r="K37" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L37" s="20">
+      <c r="M37" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N37" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O37" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="86">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="B38" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>月</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A38" s="81"/>
+      <c r="B38" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="51"/>
       <c r="E38" s="16"/>
       <c r="F38" s="18"/>
       <c r="G38" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="15" t="str">
+        <v/>
+      </c>
+      <c r="I38" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I38" s="15" t="str">
-        <f>IF(C38="", "", MAX(0, MIN(D38, TIME(20,0,0)) - MAX(C38, TIME(8,0,0)) - (F38-E38)))</f>
-        <v/>
-      </c>
-      <c r="J38" s="68" t="str">
-        <f>IF(C38="", "", MAX(0, MIN(D38, TIME(22,0,0)) - MAX(C38, TIME(20,0,0))))</f>
+      <c r="J38" s="64" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K38" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L38" s="20">
+      <c r="M38" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="16" t="str">
-        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N38" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O38" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A39" s="82"/>
+      <c r="B39" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I39" s="21" t="str">
+        <f>IF(D39="","",IF(O39="昼勤",MIN(TIME(20,0,0),D39)-MAX(TIME(8,0,0),C39)-G39,IF(C39&gt;TIME(20,0,0),0,TIME(20,0,0)-C39)))</f>
+        <v/>
+      </c>
+      <c r="J39" s="73" t="str">
+        <f t="shared" ref="J39" si="11">IF(C39="","",IF(O39="夜勤",MAX(C39,TIME(22,0,0))-MAX(C39,TIME(20,0,0)),IF(D39&lt;TIME(20,0,0),0,MIN(D39,TIME(22,0,0))-MIN(D39,TIME(20,0,0)))))</f>
+        <v/>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N39" s="71" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="B39" s="73" t="str">
-        <f t="shared" si="13"/>
-        <v>火</v>
-      </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="21" t="str">
-        <f t="shared" ref="H39" si="15">IF(O39="夜勤",MAX(0,MIN(TIME(8,0,0),D39)-TIME(5,0,0)),IF(C39="", "", MAX(0, MIN(D39, TIME(8,0,0)) - MAX(C39, TIME(5,0,0)))))</f>
-        <v/>
-      </c>
-      <c r="I39" s="21" t="str">
-        <f>IF(C39="", "", MAX(0, MIN(D39, TIME(20,0,0)) - MAX(C39, TIME(8,0,0)) - (F39-E39)))</f>
-        <v/>
-      </c>
-      <c r="J39" s="78" t="str">
-        <f>IF(C39="", "", MAX(0, MIN(D39, TIME(22,0,0)) - MAX(C39, TIME(20,0,0))))</f>
-        <v/>
-      </c>
-      <c r="K39" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="21" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N39" s="76" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="O39" s="76" t="str">
-        <f t="shared" ref="O39" si="16">IF(D39="","",IF(C39&gt;D39,"夜勤","昼勤"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="88" t="s">
-        <v>43</v>
+      <c r="O39" s="71" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A40" s="83" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="69">
+        <v>33</v>
+      </c>
+      <c r="G40" s="95">
         <f>+SUM(G9:G39)</f>
         <v>0</v>
       </c>
@@ -5514,32 +6069,32 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L40" s="46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M40" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="N40" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" s="89"/>
-    </row>
-    <row r="41" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+        <v>42</v>
+      </c>
+      <c r="N40" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="84"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A41" s="85"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="66">
         <f>COUNTA(C9:C39)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="107"/>
+      <c r="G41" s="94"/>
       <c r="H41" s="48"/>
       <c r="I41" s="48"/>
       <c r="J41" s="48"/>
@@ -5561,9 +6116,9 @@
       </c>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="88" t="s">
-        <v>48</v>
+    <row r="42" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A42" s="83" t="s">
+        <v>44</v>
       </c>
       <c r="B42" s="44"/>
       <c r="C42" s="15"/>
@@ -5571,56 +6126,56 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" s="70"/>
+      <c r="H42" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="65"/>
       <c r="L42" s="46"/>
       <c r="M42" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="O42" s="89"/>
-    </row>
-    <row r="43" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="95">
+        <v>37</v>
+      </c>
+      <c r="N42" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="84"/>
+    </row>
+    <row r="43" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A43" s="86"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="90">
         <f>SUM(H9:H39)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="95">
+      <c r="I43" s="90">
         <f>SUM(I9:I39)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="95">
+      <c r="J43" s="90">
         <f>SUM(J9:J39)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96">
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91">
         <f>+SUM(N9:N39)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="97">
+      <c r="N43" s="92">
         <f>+SUM(M9:M39)</f>
         <v>0</v>
       </c>
-      <c r="O43" s="97"/>
+      <c r="O43" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
